--- a/conejo/formatted_data_linemod.xlsx
+++ b/conejo/formatted_data_linemod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{07BB61FE-AE20-4775-9E20-8B7C6194D5EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B30F9E-7A52-4023-A07A-E07838D69FA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
+    <workbookView xWindow="12600" yWindow="1395" windowWidth="16200" windowHeight="10200" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
   <sheets>
     <sheet name="busses" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">gens!$A$1:$H$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1239,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB4950-8AF2-4919-9162-03A3918F6395}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,7 +4026,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M68" sqref="M68:M100"/>
+      <selection activeCell="K2" sqref="K2:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8150,8 +8149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13644,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -13664,10 +13663,10 @@
         <v>235</v>
       </c>
       <c r="B118">
+        <v>203</v>
+      </c>
+      <c r="C118">
         <v>326</v>
-      </c>
-      <c r="C118">
-        <v>203</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -13691,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -13738,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -13758,10 +13757,10 @@
         <v>238</v>
       </c>
       <c r="B120">
+        <v>215</v>
+      </c>
+      <c r="C120">
         <v>327</v>
-      </c>
-      <c r="C120">
-        <v>215</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -13785,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -13832,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -13852,10 +13851,10 @@
         <v>240</v>
       </c>
       <c r="B122">
+        <v>217</v>
+      </c>
+      <c r="C122">
         <v>328</v>
-      </c>
-      <c r="C122">
-        <v>217</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -13879,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -13926,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -13946,10 +13945,10 @@
         <v>242</v>
       </c>
       <c r="B124">
+        <v>121</v>
+      </c>
+      <c r="C124">
         <v>329</v>
-      </c>
-      <c r="C124">
-        <v>121</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -13973,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -14020,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -14040,10 +14039,10 @@
         <v>244</v>
       </c>
       <c r="B126">
+        <v>223</v>
+      </c>
+      <c r="C126">
         <v>330</v>
-      </c>
-      <c r="C126">
-        <v>223</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -14067,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L126">
         <v>0</v>

--- a/conejo/formatted_data_linemod.xlsx
+++ b/conejo/formatted_data_linemod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B30F9E-7A52-4023-A07A-E07838D69FA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BFA910-2AC5-4CD9-9B80-AB3C63D510CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="1395" windowWidth="16200" windowHeight="10200" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15720" windowHeight="12465" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
   <sheets>
     <sheet name="busses" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">busses!$A$1:$J$79</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">lines!$A$1:$N$120</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">lines!$A$1:$N$118</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">gens!$A$1:$H$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="237">
   <si>
     <t>Abel</t>
   </si>
@@ -768,31 +768,7 @@
     <t>ab41_2</t>
   </si>
   <si>
-    <t>ab42_1</t>
-  </si>
-  <si>
     <t>ab41_1</t>
-  </si>
-  <si>
-    <t>ab42_2</t>
-  </si>
-  <si>
-    <t>ab43_1</t>
-  </si>
-  <si>
-    <t>ab43_2</t>
-  </si>
-  <si>
-    <t>ab44_1</t>
-  </si>
-  <si>
-    <t>ab44_2</t>
-  </si>
-  <si>
-    <t>ab45_1</t>
-  </si>
-  <si>
-    <t>ab45_2</t>
   </si>
 </sst>
 </file>
@@ -4025,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE3EA53-F01C-4E2B-BB06-AD151A3AC232}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K34"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68:M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,7 +5442,7 @@
         <v>34</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>1.0210999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -5507,7 +5483,7 @@
         <v>35</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>1.1254</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -5548,7 +5524,7 @@
         <v>36</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>1.1141000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5589,7 +5565,7 @@
         <v>37</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>1.1016999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5630,7 +5606,7 @@
         <v>38</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>1.0333000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5671,7 +5647,7 @@
         <v>39</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>1.1564000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5712,7 +5688,7 @@
         <v>40</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>1.1174999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5753,7 +5729,7 @@
         <v>41</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>1.085</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5794,7 +5770,7 @@
         <v>42</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>1.1011</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5835,7 +5811,7 @@
         <v>43</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>1.0869</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5876,7 +5852,7 @@
         <v>44</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>1.0125</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5917,7 +5893,7 @@
         <v>45</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>1.0857000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5958,7 +5934,7 @@
         <v>46</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>1.0584</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5999,7 +5975,7 @@
         <v>47</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>1.0509999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -6040,7 +6016,7 @@
         <v>48</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>1.0422</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -6081,7 +6057,7 @@
         <v>49</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>1.0732999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -6122,7 +6098,7 @@
         <v>50</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -6163,7 +6139,7 @@
         <v>51</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>1.1482000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -6204,7 +6180,7 @@
         <v>52</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>1.1259999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -6245,7 +6221,7 @@
         <v>53</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -6286,7 +6262,7 @@
         <v>54</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>1.0983000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -6327,7 +6303,7 @@
         <v>55</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>1.0601</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -6368,7 +6344,7 @@
         <v>56</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>1.1509</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,7 +6385,7 @@
         <v>57</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>1.0932999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -6450,7 +6426,7 @@
         <v>58</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>1.0643</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -6491,7 +6467,7 @@
         <v>59</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>1.1676</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -6532,7 +6508,7 @@
         <v>60</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>1.0888</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -6573,7 +6549,7 @@
         <v>61</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>1.0705</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6614,7 +6590,7 @@
         <v>62</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>1.0852999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6655,7 +6631,7 @@
         <v>63</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>1.0576000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6696,7 +6672,7 @@
         <v>64</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6737,7 +6713,7 @@
         <v>65</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>1.2262999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6778,7 +6754,7 @@
         <v>66</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>1.1828000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6819,7 +6795,7 @@
         <v>67</v>
       </c>
       <c r="M68">
-        <v>1.0210999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6860,7 +6836,7 @@
         <v>68</v>
       </c>
       <c r="M69">
-        <v>1.1254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6901,7 +6877,7 @@
         <v>69</v>
       </c>
       <c r="M70">
-        <v>1.1141000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6942,7 +6918,7 @@
         <v>70</v>
       </c>
       <c r="M71">
-        <v>1.1016999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6983,7 +6959,7 @@
         <v>71</v>
       </c>
       <c r="M72">
-        <v>1.0333000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -7024,7 +7000,7 @@
         <v>72</v>
       </c>
       <c r="M73">
-        <v>1.1564000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -7065,7 +7041,7 @@
         <v>73</v>
       </c>
       <c r="M74">
-        <v>1.1174999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -7106,7 +7082,7 @@
         <v>74</v>
       </c>
       <c r="M75">
-        <v>1.085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -7147,7 +7123,7 @@
         <v>75</v>
       </c>
       <c r="M76">
-        <v>1.1011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -7188,7 +7164,7 @@
         <v>76</v>
       </c>
       <c r="M77">
-        <v>1.0869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -7229,7 +7205,7 @@
         <v>77</v>
       </c>
       <c r="M78">
-        <v>1.0125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -7270,7 +7246,7 @@
         <v>78</v>
       </c>
       <c r="M79">
-        <v>1.0857000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -7311,7 +7287,7 @@
         <v>79</v>
       </c>
       <c r="M80">
-        <v>1.0584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -7352,7 +7328,7 @@
         <v>80</v>
       </c>
       <c r="M81">
-        <v>1.0509999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -7393,7 +7369,7 @@
         <v>81</v>
       </c>
       <c r="M82">
-        <v>1.0422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -7434,7 +7410,7 @@
         <v>82</v>
       </c>
       <c r="M83">
-        <v>1.0732999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -7475,7 +7451,7 @@
         <v>83</v>
       </c>
       <c r="M84">
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -7516,7 +7492,7 @@
         <v>84</v>
       </c>
       <c r="M85">
-        <v>1.1482000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -7557,7 +7533,7 @@
         <v>85</v>
       </c>
       <c r="M86">
-        <v>1.1259999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -7598,7 +7574,7 @@
         <v>86</v>
       </c>
       <c r="M87">
-        <v>1.099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -7639,7 +7615,7 @@
         <v>87</v>
       </c>
       <c r="M88">
-        <v>1.0983000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -7680,7 +7656,7 @@
         <v>88</v>
       </c>
       <c r="M89">
-        <v>1.0601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -7721,7 +7697,7 @@
         <v>89</v>
       </c>
       <c r="M90">
-        <v>1.1509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -7762,7 +7738,7 @@
         <v>90</v>
       </c>
       <c r="M91">
-        <v>1.0932999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -7803,7 +7779,7 @@
         <v>91</v>
       </c>
       <c r="M92">
-        <v>1.0643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -7844,7 +7820,7 @@
         <v>92</v>
       </c>
       <c r="M93">
-        <v>1.1676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7885,7 +7861,7 @@
         <v>93</v>
       </c>
       <c r="M94">
-        <v>1.0888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7926,7 +7902,7 @@
         <v>94</v>
       </c>
       <c r="M95">
-        <v>1.0705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7967,7 +7943,7 @@
         <v>95</v>
       </c>
       <c r="M96">
-        <v>1.0852999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -8008,7 +7984,7 @@
         <v>96</v>
       </c>
       <c r="M97">
-        <v>1.0576000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -8049,7 +8025,7 @@
         <v>97</v>
       </c>
       <c r="M98">
-        <v>1.044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -8090,7 +8066,7 @@
         <v>98</v>
       </c>
       <c r="M99">
-        <v>1.2262999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -8131,7 +8107,7 @@
         <v>99</v>
       </c>
       <c r="M100">
-        <v>1.1828000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -8149,8 +8125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13613,7 +13589,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B117">
         <v>107</v>
@@ -13643,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -13690,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -13703,382 +13679,6 @@
       </c>
       <c r="O118">
         <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119">
-        <v>113</v>
-      </c>
-      <c r="C119">
-        <v>327</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>500</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120">
-        <v>215</v>
-      </c>
-      <c r="C120">
-        <v>327</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>500</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-      <c r="O120">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121">
-        <v>123</v>
-      </c>
-      <c r="C121">
-        <v>328</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>500</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-      <c r="O121">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122">
-        <v>217</v>
-      </c>
-      <c r="C122">
-        <v>328</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>500</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123">
-        <v>325</v>
-      </c>
-      <c r="C123">
-        <v>329</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>500</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B124">
-        <v>121</v>
-      </c>
-      <c r="C124">
-        <v>329</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>500</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B125">
-        <v>318</v>
-      </c>
-      <c r="C125">
-        <v>330</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>500</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="O125">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B126">
-        <v>223</v>
-      </c>
-      <c r="C126">
-        <v>330</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>500</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-      <c r="O126">
-        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
